--- a/Semester3/ASD/labswork/lab2/ResultLab2.xlsx
+++ b/Semester3/ASD/labswork/lab2/ResultLab2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developments\KNU\AcademicWorkPrograming\Semester3\ASD\labswork\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BCD6B6-DAF5-4CBA-99AC-15AC0ED5761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396EB531-3F9A-4044-BA28-F5D05283C19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="630" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -288,6 +288,18 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -296,18 +308,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1375,7 +1375,7 @@
             <c:numRef>
               <c:f>Лист1!$D$26:$D$45</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>6.0000000000000002E-6</c:v>
@@ -2037,7 +2037,7 @@
             <c:numRef>
               <c:f>Лист1!$D$49:$D$68</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>5.0000000000000004E-6</c:v>
@@ -2699,7 +2699,7 @@
             <c:numRef>
               <c:f>Лист1!$D$72:$D$91</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>6.0000000000000002E-6</c:v>
@@ -5591,7 +5591,7 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
@@ -5607,10 +5607,10 @@
     <row r="1" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -5632,10 +5632,10 @@
       <c r="B3" s="3">
         <v>50000</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>2.8500000000000002E-5</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <v>6.5700000000000003E-4</v>
       </c>
       <c r="E3" s="6"/>
@@ -5647,10 +5647,10 @@
       <c r="B4" s="3">
         <v>100000</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>6.3999999999999997E-5</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>1.3190000000000001E-3</v>
       </c>
       <c r="E4" s="6"/>
@@ -5662,10 +5662,10 @@
       <c r="B5" s="3">
         <v>150000</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>6.6699999999999995E-5</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <v>1.9810000000000001E-3</v>
       </c>
       <c r="E5" s="6"/>
@@ -5677,10 +5677,10 @@
       <c r="B6" s="3">
         <v>200000</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="16">
         <v>2.83E-5</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <v>2.8310000000000002E-3</v>
       </c>
       <c r="E6" s="6"/>
@@ -5692,10 +5692,10 @@
       <c r="B7" s="3">
         <v>250000</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="16">
         <v>3.3200000000000001E-5</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
         <v>3.2859999999999999E-3</v>
       </c>
       <c r="E7" s="6"/>
@@ -5707,10 +5707,10 @@
       <c r="B8" s="3">
         <v>300000</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <v>1.1999999999999999E-6</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>3.9719999999999998E-3</v>
       </c>
       <c r="E8" s="6"/>
@@ -5722,10 +5722,10 @@
       <c r="B9" s="3">
         <v>350000</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="16">
         <v>1.95E-5</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>4.5869999999999999E-3</v>
       </c>
       <c r="E9" s="6"/>
@@ -5737,10 +5737,10 @@
       <c r="B10" s="3">
         <v>400000</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="16">
         <v>2.9E-5</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>5.2570000000000004E-3</v>
       </c>
       <c r="E10" s="6"/>
@@ -5752,10 +5752,10 @@
       <c r="B11" s="3">
         <v>450000</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="16">
         <v>6.7000000000000002E-6</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E11" s="6"/>
@@ -5767,10 +5767,10 @@
       <c r="B12" s="3">
         <v>500000</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <v>4.1399999999999997E-5</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>6.5929999999999999E-3</v>
       </c>
       <c r="E12" s="6"/>
@@ -5782,10 +5782,10 @@
       <c r="B13" s="3">
         <v>550000</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>1.5320000000000001E-4</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <v>7.1809999999999999E-3</v>
       </c>
       <c r="E13" s="6"/>
@@ -5797,10 +5797,10 @@
       <c r="B14" s="3">
         <v>600000</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>1.2889999999999999E-4</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>7.8639999999999995E-3</v>
       </c>
       <c r="E14" s="6"/>
@@ -5812,10 +5812,10 @@
       <c r="B15" s="3">
         <v>650000</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>5.4799999999999997E-5</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>8.5290000000000001E-3</v>
       </c>
       <c r="E15" s="6"/>
@@ -5827,10 +5827,10 @@
       <c r="B16" s="3">
         <v>700000</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="16">
         <v>3.4199999999999998E-5</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="17">
         <v>9.1520000000000004E-3</v>
       </c>
       <c r="E16" s="6"/>
@@ -5842,10 +5842,10 @@
       <c r="B17" s="3">
         <v>750000</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="16">
         <v>6.0399999999999998E-5</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="17">
         <v>1.0201E-2</v>
       </c>
       <c r="E17" s="6"/>
@@ -5857,10 +5857,10 @@
       <c r="B18" s="3">
         <v>800000</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="16">
         <v>3.7299999999999999E-5</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>1.0729000000000001E-2</v>
       </c>
       <c r="E18" s="6"/>
@@ -5872,10 +5872,10 @@
       <c r="B19" s="3">
         <v>850000</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>4.0099999999999999E-5</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="17">
         <v>1.1639999999999999E-2</v>
       </c>
       <c r="E19" s="6"/>
@@ -5887,10 +5887,10 @@
       <c r="B20" s="3">
         <v>900000</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <v>1.7999999999999999E-6</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>1.2156E-2</v>
       </c>
       <c r="E20" s="6"/>
@@ -5902,10 +5902,10 @@
       <c r="B21" s="3">
         <v>950000</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>8.6100000000000006E-5</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="17">
         <v>1.3077999999999999E-2</v>
       </c>
       <c r="E21" s="6"/>
@@ -5917,10 +5917,10 @@
       <c r="B22" s="15">
         <v>1000000</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="18">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="19">
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="E22" s="6"/>
@@ -5933,10 +5933,10 @@
     <row r="24" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5959,10 +5959,10 @@
       <c r="B26" s="3">
         <v>50000</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="17">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="E26" s="6"/>
@@ -5974,10 +5974,10 @@
       <c r="B27" s="3">
         <v>100000</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="17">
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="E27" s="6"/>
@@ -5989,10 +5989,10 @@
       <c r="B28" s="3">
         <v>150000</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="16">
         <v>1.5999999999999999E-6</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="17">
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="E28" s="6"/>
@@ -6004,10 +6004,10 @@
       <c r="B29" s="3">
         <v>200000</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="17">
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="E29" s="6"/>
@@ -6019,10 +6019,10 @@
       <c r="B30" s="3">
         <v>250000</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="16">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="17">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="E30" s="6"/>
@@ -6034,10 +6034,10 @@
       <c r="B31" s="3">
         <v>300000</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="16">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="17">
         <v>1.2E-5</v>
       </c>
       <c r="E31" s="6"/>
@@ -6049,10 +6049,10 @@
       <c r="B32" s="3">
         <v>350000</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="16">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="17">
         <v>1.2E-5</v>
       </c>
       <c r="E32" s="6"/>
@@ -6064,10 +6064,10 @@
       <c r="B33" s="3">
         <v>400000</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="16">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="17">
         <v>1.2E-5</v>
       </c>
       <c r="E33" s="6"/>
@@ -6079,10 +6079,10 @@
       <c r="B34" s="3">
         <v>450000</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="16">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="17">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="E34" s="6"/>
@@ -6094,10 +6094,10 @@
       <c r="B35" s="3">
         <v>500000</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="16">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E35" s="6"/>
@@ -6109,10 +6109,10 @@
       <c r="B36" s="3">
         <v>550000</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="17">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="E36" s="6"/>
@@ -6124,10 +6124,10 @@
       <c r="B37" s="3">
         <v>600000</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E37" s="6"/>
@@ -6139,10 +6139,10 @@
       <c r="B38" s="3">
         <v>650000</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E38" s="6"/>
@@ -6154,10 +6154,10 @@
       <c r="B39" s="3">
         <v>700000</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E39" s="6"/>
@@ -6169,10 +6169,10 @@
       <c r="B40" s="3">
         <v>750000</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="16">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="17">
         <v>1.1E-5</v>
       </c>
       <c r="E40" s="6"/>
@@ -6184,10 +6184,10 @@
       <c r="B41" s="3">
         <v>800000</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E41" s="6"/>
@@ -6199,10 +6199,10 @@
       <c r="B42" s="3">
         <v>850000</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="17">
         <v>1.2E-5</v>
       </c>
       <c r="E42" s="6"/>
@@ -6214,10 +6214,10 @@
       <c r="B43" s="3">
         <v>900000</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="17">
         <v>1.1E-5</v>
       </c>
       <c r="E43" s="6"/>
@@ -6229,10 +6229,10 @@
       <c r="B44" s="3">
         <v>950000</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="17">
         <v>1.1E-5</v>
       </c>
       <c r="E44" s="6"/>
@@ -6244,10 +6244,10 @@
       <c r="B45" s="15">
         <v>1000000</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="18">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="19">
         <v>1.2E-5</v>
       </c>
       <c r="E45" s="6"/>
@@ -6260,10 +6260,10 @@
     <row r="47" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6286,10 +6286,10 @@
       <c r="B49" s="3">
         <v>50000</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="16">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="17">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="E49" s="6"/>
@@ -6301,10 +6301,10 @@
       <c r="B50" s="3">
         <v>100000</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="16">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="17">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="E50" s="6"/>
@@ -6316,10 +6316,10 @@
       <c r="B51" s="3">
         <v>150000</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="17">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="E51" s="6"/>
@@ -6331,10 +6331,10 @@
       <c r="B52" s="3">
         <v>200000</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="16">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="17">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="E52" s="6"/>
@@ -6346,10 +6346,10 @@
       <c r="B53" s="3">
         <v>250000</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="17">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="E53" s="6"/>
@@ -6361,10 +6361,10 @@
       <c r="B54" s="3">
         <v>300000</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="16">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="17">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="E54" s="6"/>
@@ -6376,10 +6376,10 @@
       <c r="B55" s="3">
         <v>350000</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="16">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="17">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="E55" s="6"/>
@@ -6391,10 +6391,10 @@
       <c r="B56" s="3">
         <v>400000</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="16">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="17">
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="E56" s="6"/>
@@ -6406,10 +6406,10 @@
       <c r="B57" s="3">
         <v>450000</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="16">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="17">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="E57" s="6"/>
@@ -6421,10 +6421,10 @@
       <c r="B58" s="3">
         <v>500000</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="16">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="17">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="E58" s="6"/>
@@ -6436,10 +6436,10 @@
       <c r="B59" s="3">
         <v>550000</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="16">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="17">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="E59" s="6"/>
@@ -6451,10 +6451,10 @@
       <c r="B60" s="3">
         <v>600000</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="16">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="17">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="E60" s="6"/>
@@ -6466,10 +6466,10 @@
       <c r="B61" s="3">
         <v>650000</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="17">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="E61" s="6"/>
@@ -6481,10 +6481,10 @@
       <c r="B62" s="3">
         <v>700000</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="16">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="17">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="E62" s="6"/>
@@ -6496,10 +6496,10 @@
       <c r="B63" s="3">
         <v>750000</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="16">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="17">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="E63" s="6"/>
@@ -6511,10 +6511,10 @@
       <c r="B64" s="3">
         <v>800000</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="16">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E64" s="6"/>
@@ -6526,10 +6526,10 @@
       <c r="B65" s="3">
         <v>850000</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="17">
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="E65" s="6"/>
@@ -6541,10 +6541,10 @@
       <c r="B66" s="3">
         <v>900000</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="17">
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="E66" s="6"/>
@@ -6556,10 +6556,10 @@
       <c r="B67" s="3">
         <v>950000</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="17">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="E67" s="6"/>
@@ -6571,10 +6571,10 @@
       <c r="B68" s="15">
         <v>1000000</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="18">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="19">
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="E68" s="6"/>
@@ -6586,10 +6586,10 @@
     <row r="70" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="19"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
@@ -6610,10 +6610,10 @@
       <c r="B72" s="3">
         <v>50000</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D72" s="21">
+      <c r="D72" s="17">
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
@@ -6624,10 +6624,10 @@
       <c r="B73" s="3">
         <v>100000</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D73" s="17">
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
@@ -6638,10 +6638,10 @@
       <c r="B74" s="3">
         <v>150000</v>
       </c>
-      <c r="C74" s="20">
+      <c r="C74" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="17">
         <v>7.9999999999999996E-6</v>
       </c>
     </row>
@@ -6652,10 +6652,10 @@
       <c r="B75" s="3">
         <v>200000</v>
       </c>
-      <c r="C75" s="20">
+      <c r="C75" s="16">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="17">
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
@@ -6666,10 +6666,10 @@
       <c r="B76" s="3">
         <v>250000</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="16">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="17">
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
@@ -6680,10 +6680,10 @@
       <c r="B77" s="3">
         <v>300000</v>
       </c>
-      <c r="C77" s="20">
+      <c r="C77" s="16">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D77" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -6694,10 +6694,10 @@
       <c r="B78" s="3">
         <v>350000</v>
       </c>
-      <c r="C78" s="20">
+      <c r="C78" s="16">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -6708,10 +6708,10 @@
       <c r="B79" s="3">
         <v>400000</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="16">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="17">
         <v>1.1E-5</v>
       </c>
     </row>
@@ -6722,10 +6722,10 @@
       <c r="B80" s="3">
         <v>450000</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="16">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="17">
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
@@ -6736,10 +6736,10 @@
       <c r="B81" s="3">
         <v>500000</v>
       </c>
-      <c r="C81" s="20">
+      <c r="C81" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -6750,10 +6750,10 @@
       <c r="B82" s="3">
         <v>550000</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="16">
         <v>8.9999999999999996E-7</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="17">
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
@@ -6764,10 +6764,10 @@
       <c r="B83" s="3">
         <v>600000</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D83" s="17">
         <v>1.1E-5</v>
       </c>
     </row>
@@ -6778,10 +6778,10 @@
       <c r="B84" s="3">
         <v>650000</v>
       </c>
-      <c r="C84" s="20">
+      <c r="C84" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D84" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -6792,10 +6792,10 @@
       <c r="B85" s="3">
         <v>700000</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -6806,10 +6806,10 @@
       <c r="B86" s="3">
         <v>750000</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="17">
         <v>1.1E-5</v>
       </c>
     </row>
@@ -6820,10 +6820,10 @@
       <c r="B87" s="3">
         <v>800000</v>
       </c>
-      <c r="C87" s="20">
+      <c r="C87" s="16">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="17">
         <v>1.2E-5</v>
       </c>
     </row>
@@ -6834,10 +6834,10 @@
       <c r="B88" s="3">
         <v>850000</v>
       </c>
-      <c r="C88" s="20">
+      <c r="C88" s="16">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="17">
         <v>1.1E-5</v>
       </c>
     </row>
@@ -6848,10 +6848,10 @@
       <c r="B89" s="3">
         <v>900000</v>
       </c>
-      <c r="C89" s="20">
+      <c r="C89" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="17">
         <v>1.1E-5</v>
       </c>
     </row>
@@ -6862,10 +6862,10 @@
       <c r="B90" s="3">
         <v>950000</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="16">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="17">
         <v>1.1E-5</v>
       </c>
     </row>
@@ -6876,10 +6876,10 @@
       <c r="B91" s="15">
         <v>1000000</v>
       </c>
-      <c r="C91" s="22">
+      <c r="C91" s="18">
         <v>6.9999999999999997E-7</v>
       </c>
-      <c r="D91" s="23">
+      <c r="D91" s="19">
         <v>1.2999999999999999E-5</v>
       </c>
     </row>
